--- a/data/PDF_stoxx600/STOXX600_as_of_2025_03_13.xlsx
+++ b/data/PDF_stoxx600/STOXX600_as_of_2025_03_13.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hendrikweichel/projects/NaceCodeClassification/nace_remedi/Summarization_Classification/data/PDF_stock600/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hendrikweichel/projects/NaceCodeClassification/nace_report_topic_analysis_3/data/PDF_stoxx600/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907B8045-BC9E-5A4C-8F4A-D8D55B3953EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D2CBBF-A9F7-5342-B95B-1C4371646290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2703" uniqueCount="1520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2700" uniqueCount="1517">
   <si>
     <t>Name</t>
   </si>
@@ -3862,9 +3862,6 @@
     <t>UNITE Group plc3.pdf</t>
   </si>
   <si>
-    <t>Africa Prudential Plc1.pdf</t>
-  </si>
-  <si>
     <t>Signify NV3.pdf</t>
   </si>
   <si>
@@ -4168,9 +4165,6 @@
     <t>Alten SA1.pdf</t>
   </si>
   <si>
-    <t>Sanofi India Limited3.pdf</t>
-  </si>
-  <si>
     <t>Geberit AG1.pdf</t>
   </si>
   <si>
@@ -4415,9 +4409,6 @@
   </si>
   <si>
     <t>Symrise AG2.pdf</t>
-  </si>
-  <si>
-    <t>ArcelorMittal South Africa Limited2.pdf</t>
   </si>
   <si>
     <t>Spie SA1.pdf</t>
@@ -4947,16 +4938,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K601"/>
+  <dimension ref="A1:J601"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="10" max="10" width="22.1640625" customWidth="1"/>
+    <col min="1" max="1" width="48.83203125" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4984,9 +4977,9 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -5012,7 +5005,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -5038,7 +5031,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -5064,7 +5057,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -5093,7 +5086,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -5119,7 +5112,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -5148,7 +5141,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -5177,7 +5170,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -5206,7 +5199,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -5235,7 +5228,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -5261,7 +5254,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -5290,7 +5283,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -5319,7 +5312,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -5348,7 +5341,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -5374,7 +5367,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -6424,9 +6417,6 @@
       <c r="H53" t="s">
         <v>1212</v>
       </c>
-      <c r="I53" t="s">
-        <v>1280</v>
-      </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
@@ -6454,7 +6444,7 @@
         <v>1210</v>
       </c>
       <c r="I54" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -6480,7 +6470,7 @@
         <v>1214</v>
       </c>
       <c r="I55" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -6509,7 +6499,7 @@
         <v>1215</v>
       </c>
       <c r="I56" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -6538,7 +6528,7 @@
         <v>1212</v>
       </c>
       <c r="I57" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -6567,7 +6557,7 @@
         <v>1212</v>
       </c>
       <c r="I58" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -6593,7 +6583,7 @@
         <v>1209</v>
       </c>
       <c r="I59" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -6619,7 +6609,7 @@
         <v>1209</v>
       </c>
       <c r="I60" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -6645,7 +6635,7 @@
         <v>1222</v>
       </c>
       <c r="I61" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
@@ -6674,7 +6664,7 @@
         <v>1211</v>
       </c>
       <c r="I62" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
@@ -6703,7 +6693,7 @@
         <v>1210</v>
       </c>
       <c r="I63" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
@@ -6729,7 +6719,7 @@
         <v>1210</v>
       </c>
       <c r="I64" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
@@ -6758,7 +6748,7 @@
         <v>1217</v>
       </c>
       <c r="I65" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
@@ -6784,7 +6774,7 @@
         <v>1209</v>
       </c>
       <c r="I66" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
@@ -6813,7 +6803,7 @@
         <v>1210</v>
       </c>
       <c r="I67" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
@@ -6842,7 +6832,7 @@
         <v>1210</v>
       </c>
       <c r="I68" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
@@ -6871,7 +6861,7 @@
         <v>1214</v>
       </c>
       <c r="I69" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
@@ -6900,7 +6890,7 @@
         <v>1210</v>
       </c>
       <c r="I70" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
@@ -6929,7 +6919,7 @@
         <v>1215</v>
       </c>
       <c r="I71" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
@@ -6958,7 +6948,7 @@
         <v>1223</v>
       </c>
       <c r="I72" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
@@ -6984,7 +6974,7 @@
         <v>1211</v>
       </c>
       <c r="I73" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
@@ -7013,7 +7003,7 @@
         <v>1212</v>
       </c>
       <c r="I74" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
@@ -7039,7 +7029,7 @@
         <v>1213</v>
       </c>
       <c r="I75" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
@@ -7065,7 +7055,7 @@
         <v>1209</v>
       </c>
       <c r="I76" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
@@ -7094,7 +7084,7 @@
         <v>1218</v>
       </c>
       <c r="I77" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
@@ -7120,7 +7110,7 @@
         <v>1210</v>
       </c>
       <c r="I78" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
@@ -7146,7 +7136,7 @@
         <v>1221</v>
       </c>
       <c r="I79" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
@@ -7172,7 +7162,7 @@
         <v>1211</v>
       </c>
       <c r="I80" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
@@ -7201,7 +7191,7 @@
         <v>1221</v>
       </c>
       <c r="I81" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
@@ -7230,7 +7220,7 @@
         <v>1210</v>
       </c>
       <c r="I82" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
@@ -7259,7 +7249,7 @@
         <v>1221</v>
       </c>
       <c r="I83" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
@@ -7285,7 +7275,7 @@
         <v>1212</v>
       </c>
       <c r="I84" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
@@ -7314,7 +7304,7 @@
         <v>1210</v>
       </c>
       <c r="I85" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
@@ -7343,7 +7333,7 @@
         <v>1210</v>
       </c>
       <c r="I86" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
@@ -7372,7 +7362,7 @@
         <v>1210</v>
       </c>
       <c r="I87" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
@@ -7401,7 +7391,7 @@
         <v>1212</v>
       </c>
       <c r="I88" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
@@ -7430,7 +7420,7 @@
         <v>1212</v>
       </c>
       <c r="I89" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
@@ -7459,7 +7449,7 @@
         <v>1212</v>
       </c>
       <c r="I90" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
@@ -7488,7 +7478,7 @@
         <v>1210</v>
       </c>
       <c r="I91" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
@@ -7517,7 +7507,7 @@
         <v>1210</v>
       </c>
       <c r="I92" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
@@ -7543,7 +7533,7 @@
         <v>1209</v>
       </c>
       <c r="I93" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
@@ -7572,7 +7562,7 @@
         <v>1218</v>
       </c>
       <c r="I94" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
@@ -7601,7 +7591,7 @@
         <v>1210</v>
       </c>
       <c r="I95" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
@@ -7630,7 +7620,7 @@
         <v>1218</v>
       </c>
       <c r="I96" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
@@ -7659,7 +7649,7 @@
         <v>1211</v>
       </c>
       <c r="I97" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
@@ -7688,7 +7678,7 @@
         <v>1212</v>
       </c>
       <c r="I98" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
@@ -7717,7 +7707,7 @@
         <v>1210</v>
       </c>
       <c r="I99" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
@@ -7746,7 +7736,7 @@
         <v>1212</v>
       </c>
       <c r="I100" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
@@ -7772,7 +7762,7 @@
         <v>1212</v>
       </c>
       <c r="I101" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
@@ -7801,7 +7791,7 @@
         <v>1210</v>
       </c>
       <c r="I102" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
@@ -7827,7 +7817,7 @@
         <v>1210</v>
       </c>
       <c r="I103" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
@@ -7853,7 +7843,7 @@
         <v>1210</v>
       </c>
       <c r="I104" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
@@ -7882,7 +7872,7 @@
         <v>1210</v>
       </c>
       <c r="I105" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
@@ -7911,7 +7901,7 @@
         <v>1210</v>
       </c>
       <c r="I106" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
@@ -7940,7 +7930,7 @@
         <v>1210</v>
       </c>
       <c r="I107" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
@@ -7966,7 +7956,7 @@
         <v>1209</v>
       </c>
       <c r="I108" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
@@ -7995,7 +7985,7 @@
         <v>1210</v>
       </c>
       <c r="I109" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
@@ -8024,7 +8014,7 @@
         <v>1210</v>
       </c>
       <c r="I110" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
@@ -8053,7 +8043,7 @@
         <v>1210</v>
       </c>
       <c r="I111" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
@@ -8082,7 +8072,7 @@
         <v>1210</v>
       </c>
       <c r="I112" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
@@ -8111,7 +8101,7 @@
         <v>1217</v>
       </c>
       <c r="I113" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
@@ -8137,7 +8127,7 @@
         <v>1222</v>
       </c>
       <c r="I114" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
@@ -8163,7 +8153,7 @@
         <v>1218</v>
       </c>
       <c r="I115" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
@@ -8192,7 +8182,7 @@
         <v>1210</v>
       </c>
       <c r="I116" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
@@ -8221,7 +8211,7 @@
         <v>1214</v>
       </c>
       <c r="I117" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
@@ -8250,7 +8240,7 @@
         <v>1210</v>
       </c>
       <c r="I118" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
@@ -8279,7 +8269,7 @@
         <v>1210</v>
       </c>
       <c r="I119" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
@@ -8308,7 +8298,7 @@
         <v>1220</v>
       </c>
       <c r="I120" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
@@ -8337,7 +8327,7 @@
         <v>1210</v>
       </c>
       <c r="I121" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
@@ -8366,7 +8356,7 @@
         <v>1210</v>
       </c>
       <c r="I122" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
@@ -8395,7 +8385,7 @@
         <v>1210</v>
       </c>
       <c r="I123" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
@@ -8424,7 +8414,7 @@
         <v>1210</v>
       </c>
       <c r="I124" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
@@ -8453,7 +8443,7 @@
         <v>1210</v>
       </c>
       <c r="I125" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
@@ -8482,7 +8472,7 @@
         <v>1224</v>
       </c>
       <c r="I126" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
@@ -8511,7 +8501,7 @@
         <v>1210</v>
       </c>
       <c r="I127" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
@@ -8540,7 +8530,7 @@
         <v>1210</v>
       </c>
       <c r="I128" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
@@ -8566,7 +8556,7 @@
         <v>1214</v>
       </c>
       <c r="I129" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
@@ -8595,7 +8585,7 @@
         <v>1210</v>
       </c>
       <c r="I130" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
@@ -8624,7 +8614,7 @@
         <v>1215</v>
       </c>
       <c r="I131" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
@@ -8653,7 +8643,7 @@
         <v>1209</v>
       </c>
       <c r="I132" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
@@ -8682,7 +8672,7 @@
         <v>1210</v>
       </c>
       <c r="I133" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
@@ -8711,7 +8701,7 @@
         <v>1220</v>
       </c>
       <c r="I134" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
@@ -8740,7 +8730,7 @@
         <v>1213</v>
       </c>
       <c r="I135" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
@@ -8769,7 +8759,7 @@
         <v>1212</v>
       </c>
       <c r="I136" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
@@ -8795,7 +8785,7 @@
         <v>1210</v>
       </c>
       <c r="I137" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
@@ -8824,7 +8814,7 @@
         <v>1219</v>
       </c>
       <c r="I138" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
@@ -8853,7 +8843,7 @@
         <v>1210</v>
       </c>
       <c r="I139" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
@@ -8882,7 +8872,7 @@
         <v>1210</v>
       </c>
       <c r="I140" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
@@ -8911,7 +8901,7 @@
         <v>1210</v>
       </c>
       <c r="I141" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
@@ -8969,7 +8959,7 @@
         <v>1210</v>
       </c>
       <c r="I143" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
@@ -8998,7 +8988,7 @@
         <v>1210</v>
       </c>
       <c r="I144" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
@@ -9024,7 +9014,7 @@
         <v>1210</v>
       </c>
       <c r="I145" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
@@ -9053,7 +9043,7 @@
         <v>1210</v>
       </c>
       <c r="I146" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
@@ -9082,7 +9072,7 @@
         <v>1210</v>
       </c>
       <c r="I147" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
@@ -9111,7 +9101,7 @@
         <v>1212</v>
       </c>
       <c r="I148" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
@@ -9140,7 +9130,7 @@
         <v>1210</v>
       </c>
       <c r="I149" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
@@ -9169,7 +9159,7 @@
         <v>1217</v>
       </c>
       <c r="I150" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
@@ -9198,7 +9188,7 @@
         <v>1210</v>
       </c>
       <c r="I151" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
@@ -9227,7 +9217,7 @@
         <v>1218</v>
       </c>
       <c r="I152" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
@@ -9255,9 +9245,6 @@
       <c r="H153" t="s">
         <v>1210</v>
       </c>
-      <c r="I153" t="s">
-        <v>1382</v>
-      </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
@@ -9285,7 +9272,7 @@
         <v>1210</v>
       </c>
       <c r="I154" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
@@ -9314,7 +9301,7 @@
         <v>1210</v>
       </c>
       <c r="I155" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
@@ -9343,7 +9330,7 @@
         <v>1217</v>
       </c>
       <c r="I156" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
@@ -9372,7 +9359,7 @@
         <v>1210</v>
       </c>
       <c r="I157" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
@@ -9401,7 +9388,7 @@
         <v>1210</v>
       </c>
       <c r="I158" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
@@ -9430,7 +9417,7 @@
         <v>1211</v>
       </c>
       <c r="I159" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
@@ -9459,7 +9446,7 @@
         <v>1210</v>
       </c>
       <c r="I160" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
@@ -9488,7 +9475,7 @@
         <v>1212</v>
       </c>
       <c r="I161" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
@@ -9517,7 +9504,7 @@
         <v>1218</v>
       </c>
       <c r="I162" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
@@ -9543,7 +9530,7 @@
         <v>1212</v>
       </c>
       <c r="I163" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
@@ -9572,7 +9559,7 @@
         <v>1214</v>
       </c>
       <c r="I164" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
@@ -9601,7 +9588,7 @@
         <v>1210</v>
       </c>
       <c r="I165" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
@@ -9630,7 +9617,7 @@
         <v>1216</v>
       </c>
       <c r="I166" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
@@ -9685,7 +9672,7 @@
         <v>1210</v>
       </c>
       <c r="I168" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
@@ -9711,7 +9698,7 @@
         <v>1210</v>
       </c>
       <c r="I169" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
@@ -9740,7 +9727,7 @@
         <v>1211</v>
       </c>
       <c r="I170" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
@@ -9769,7 +9756,7 @@
         <v>1211</v>
       </c>
       <c r="I171" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
@@ -9798,7 +9785,7 @@
         <v>1209</v>
       </c>
       <c r="I172" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
@@ -9824,7 +9811,7 @@
         <v>1214</v>
       </c>
       <c r="I173" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
@@ -9850,7 +9837,7 @@
         <v>1211</v>
       </c>
       <c r="I174" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
@@ -9879,7 +9866,7 @@
         <v>1210</v>
       </c>
       <c r="I175" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
@@ -9908,7 +9895,7 @@
         <v>1210</v>
       </c>
       <c r="I176" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
@@ -9937,7 +9924,7 @@
         <v>1210</v>
       </c>
       <c r="I177" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
@@ -9963,7 +9950,7 @@
         <v>1212</v>
       </c>
       <c r="I178" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
@@ -9992,7 +9979,7 @@
         <v>1218</v>
       </c>
       <c r="I179" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
@@ -10021,7 +10008,7 @@
         <v>1214</v>
       </c>
       <c r="I180" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
@@ -10050,7 +10037,7 @@
         <v>1210</v>
       </c>
       <c r="I181" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.2">
@@ -10079,7 +10066,7 @@
         <v>1212</v>
       </c>
       <c r="I182" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.2">
@@ -10105,7 +10092,7 @@
         <v>1222</v>
       </c>
       <c r="I183" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.2">
@@ -10134,7 +10121,7 @@
         <v>1210</v>
       </c>
       <c r="I184" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.2">
@@ -10163,7 +10150,7 @@
         <v>1212</v>
       </c>
       <c r="I185" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.2">
@@ -10192,7 +10179,7 @@
         <v>1210</v>
       </c>
       <c r="I186" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.2">
@@ -10221,7 +10208,7 @@
         <v>1212</v>
       </c>
       <c r="I187" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.2">
@@ -10247,7 +10234,7 @@
         <v>1212</v>
       </c>
       <c r="I188" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.2">
@@ -10273,7 +10260,7 @@
         <v>1210</v>
       </c>
       <c r="I189" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.2">
@@ -10302,7 +10289,7 @@
         <v>1210</v>
       </c>
       <c r="I190" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.2">
@@ -10328,7 +10315,7 @@
         <v>1215</v>
       </c>
       <c r="I191" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.2">
@@ -10357,7 +10344,7 @@
         <v>1210</v>
       </c>
       <c r="I192" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
@@ -10386,7 +10373,7 @@
         <v>1210</v>
       </c>
       <c r="I193" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
@@ -10412,7 +10399,7 @@
         <v>1212</v>
       </c>
       <c r="I194" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.2">
@@ -10441,7 +10428,7 @@
         <v>1210</v>
       </c>
       <c r="I195" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
@@ -10467,7 +10454,7 @@
         <v>1222</v>
       </c>
       <c r="I196" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.2">
@@ -10496,7 +10483,7 @@
         <v>1210</v>
       </c>
       <c r="I197" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
@@ -10525,7 +10512,7 @@
         <v>1214</v>
       </c>
       <c r="I198" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.2">
@@ -10551,7 +10538,7 @@
         <v>1210</v>
       </c>
       <c r="I199" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.2">
@@ -10580,7 +10567,7 @@
         <v>1212</v>
       </c>
       <c r="I200" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.2">
@@ -10606,7 +10593,7 @@
         <v>1210</v>
       </c>
       <c r="I201" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.2">
@@ -10635,7 +10622,7 @@
         <v>1212</v>
       </c>
       <c r="I202" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.2">
@@ -10664,7 +10651,7 @@
         <v>1212</v>
       </c>
       <c r="I203" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
@@ -10693,7 +10680,7 @@
         <v>1210</v>
       </c>
       <c r="I204" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
@@ -10719,7 +10706,7 @@
         <v>1214</v>
       </c>
       <c r="I205" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.2">
@@ -10748,7 +10735,7 @@
         <v>1210</v>
       </c>
       <c r="I206" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
@@ -10777,7 +10764,7 @@
         <v>1210</v>
       </c>
       <c r="I207" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
@@ -10806,7 +10793,7 @@
         <v>1222</v>
       </c>
       <c r="I208" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
@@ -10835,7 +10822,7 @@
         <v>1212</v>
       </c>
       <c r="I209" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
@@ -10864,7 +10851,7 @@
         <v>1210</v>
       </c>
       <c r="I210" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
@@ -10893,7 +10880,7 @@
         <v>1210</v>
       </c>
       <c r="I211" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
@@ -10922,7 +10909,7 @@
         <v>1210</v>
       </c>
       <c r="I212" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
@@ -10951,7 +10938,7 @@
         <v>1211</v>
       </c>
       <c r="I213" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
@@ -10977,7 +10964,7 @@
         <v>1222</v>
       </c>
       <c r="I214" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
@@ -11006,7 +10993,7 @@
         <v>1216</v>
       </c>
       <c r="I215" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
@@ -11035,7 +11022,7 @@
         <v>1222</v>
       </c>
       <c r="I216" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
@@ -11064,7 +11051,7 @@
         <v>1210</v>
       </c>
       <c r="I217" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
@@ -11093,7 +11080,7 @@
         <v>1212</v>
       </c>
       <c r="I218" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.2">
@@ -11122,7 +11109,7 @@
         <v>1210</v>
       </c>
       <c r="I219" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.2">
@@ -11151,7 +11138,7 @@
         <v>1210</v>
       </c>
       <c r="I220" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
@@ -11177,7 +11164,7 @@
         <v>1214</v>
       </c>
       <c r="I221" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.2">
@@ -11206,7 +11193,7 @@
         <v>1210</v>
       </c>
       <c r="I222" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
@@ -11258,7 +11245,7 @@
         <v>1212</v>
       </c>
       <c r="I224" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.2">
@@ -11287,7 +11274,7 @@
         <v>1212</v>
       </c>
       <c r="I225" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.2">
@@ -11316,7 +11303,7 @@
         <v>1210</v>
       </c>
       <c r="I226" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.2">
@@ -11345,7 +11332,7 @@
         <v>1210</v>
       </c>
       <c r="I227" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.2">
@@ -11374,7 +11361,7 @@
         <v>1212</v>
       </c>
       <c r="I228" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.2">
@@ -11403,7 +11390,7 @@
         <v>1210</v>
       </c>
       <c r="I229" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.2">
@@ -11429,7 +11416,7 @@
         <v>1212</v>
       </c>
       <c r="I230" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.2">
@@ -11458,7 +11445,7 @@
         <v>1210</v>
       </c>
       <c r="I231" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.2">
@@ -11487,7 +11474,7 @@
         <v>1210</v>
       </c>
       <c r="I232" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.2">
@@ -11516,7 +11503,7 @@
         <v>1212</v>
       </c>
       <c r="I233" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.2">
@@ -11545,7 +11532,7 @@
         <v>1210</v>
       </c>
       <c r="I234" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.2">
@@ -11574,7 +11561,7 @@
         <v>1210</v>
       </c>
       <c r="I235" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.2">
@@ -11603,7 +11590,7 @@
         <v>1212</v>
       </c>
       <c r="I236" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.2">
@@ -11632,7 +11619,7 @@
         <v>1210</v>
       </c>
       <c r="I237" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.2">
@@ -11660,9 +11647,6 @@
       <c r="H238" t="s">
         <v>1210</v>
       </c>
-      <c r="I238" t="s">
-        <v>1465</v>
-      </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
@@ -11690,7 +11674,7 @@
         <v>1218</v>
       </c>
       <c r="I239" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.2">
@@ -11719,7 +11703,7 @@
         <v>1210</v>
       </c>
       <c r="I240" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.2">
@@ -11748,7 +11732,7 @@
         <v>1209</v>
       </c>
       <c r="I241" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.2">
@@ -11777,7 +11761,7 @@
         <v>1210</v>
       </c>
       <c r="I242" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.2">
@@ -11806,7 +11790,7 @@
         <v>1210</v>
       </c>
       <c r="I243" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.2">
@@ -11832,7 +11816,7 @@
         <v>1213</v>
       </c>
       <c r="I244" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.2">
@@ -11858,7 +11842,7 @@
         <v>1211</v>
       </c>
       <c r="I245" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.2">
@@ -11887,7 +11871,7 @@
         <v>1211</v>
       </c>
       <c r="I246" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.2">
@@ -11913,7 +11897,7 @@
         <v>1210</v>
       </c>
       <c r="I247" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.2">
@@ -11942,7 +11926,7 @@
         <v>1214</v>
       </c>
       <c r="I248" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.2">
@@ -11971,7 +11955,7 @@
         <v>1212</v>
       </c>
       <c r="I249" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.2">
@@ -12000,7 +11984,7 @@
         <v>1212</v>
       </c>
       <c r="I250" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.2">
@@ -12029,7 +12013,7 @@
         <v>1218</v>
       </c>
       <c r="I251" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.2">
@@ -12058,7 +12042,7 @@
         <v>1212</v>
       </c>
       <c r="I252" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.2">
@@ -12084,7 +12068,7 @@
         <v>1209</v>
       </c>
       <c r="I253" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.2">
@@ -12113,7 +12097,7 @@
         <v>1210</v>
       </c>
       <c r="I254" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.2">
@@ -12142,7 +12126,7 @@
         <v>1210</v>
       </c>
       <c r="I255" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.2">
@@ -12171,7 +12155,7 @@
         <v>1212</v>
       </c>
       <c r="I256" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.2">
@@ -12200,7 +12184,7 @@
         <v>1210</v>
       </c>
       <c r="I257" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.2">
@@ -12226,7 +12210,7 @@
         <v>1212</v>
       </c>
       <c r="I258" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.2">
@@ -12255,7 +12239,7 @@
         <v>1225</v>
       </c>
       <c r="I259" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.2">
@@ -12284,7 +12268,7 @@
         <v>1212</v>
       </c>
       <c r="I260" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.2">
@@ -12310,7 +12294,7 @@
         <v>1222</v>
       </c>
       <c r="I261" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.2">
@@ -12336,7 +12320,7 @@
         <v>1210</v>
       </c>
       <c r="I262" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.2">
@@ -12365,7 +12349,7 @@
         <v>1213</v>
       </c>
       <c r="I263" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.2">
@@ -12391,7 +12375,7 @@
         <v>1212</v>
       </c>
       <c r="I264" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.2">
@@ -12417,7 +12401,7 @@
         <v>1214</v>
       </c>
       <c r="I265" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.2">
@@ -12446,7 +12430,7 @@
         <v>1212</v>
       </c>
       <c r="I266" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.2">
@@ -12475,7 +12459,7 @@
         <v>1225</v>
       </c>
       <c r="I267" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.2">
@@ -12504,7 +12488,7 @@
         <v>1212</v>
       </c>
       <c r="I268" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.2">
@@ -12533,7 +12517,7 @@
         <v>1210</v>
       </c>
       <c r="I269" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.2">
@@ -12559,7 +12543,7 @@
         <v>1212</v>
       </c>
       <c r="I270" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.2">
@@ -12588,7 +12572,7 @@
         <v>1210</v>
       </c>
       <c r="I271" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.2">
@@ -12614,7 +12598,7 @@
         <v>1214</v>
       </c>
       <c r="I272" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.2">
@@ -12643,7 +12627,7 @@
         <v>1210</v>
       </c>
       <c r="I273" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.2">
@@ -12669,7 +12653,7 @@
         <v>1212</v>
       </c>
       <c r="I274" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.2">
@@ -12698,7 +12682,7 @@
         <v>1212</v>
       </c>
       <c r="I275" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.2">
@@ -12727,7 +12711,7 @@
         <v>1210</v>
       </c>
       <c r="I276" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.2">
@@ -12756,7 +12740,7 @@
         <v>1210</v>
       </c>
       <c r="I277" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.2">
@@ -12782,7 +12766,7 @@
         <v>1212</v>
       </c>
       <c r="I278" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.2">
@@ -12811,7 +12795,7 @@
         <v>1212</v>
       </c>
       <c r="I279" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.2">
@@ -12840,7 +12824,7 @@
         <v>1212</v>
       </c>
       <c r="I280" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.2">
@@ -12869,7 +12853,7 @@
         <v>1210</v>
       </c>
       <c r="I281" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.2">
@@ -12898,7 +12882,7 @@
         <v>1212</v>
       </c>
       <c r="I282" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.2">
@@ -12927,7 +12911,7 @@
         <v>1210</v>
       </c>
       <c r="I283" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.2">
@@ -12953,7 +12937,7 @@
         <v>1214</v>
       </c>
       <c r="I284" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.2">
@@ -12982,7 +12966,7 @@
         <v>1212</v>
       </c>
       <c r="I285" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.2">
@@ -13011,7 +12995,7 @@
         <v>1211</v>
       </c>
       <c r="I286" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.2">
@@ -13040,7 +13024,7 @@
         <v>1209</v>
       </c>
       <c r="I287" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.2">
@@ -13069,7 +13053,7 @@
         <v>1225</v>
       </c>
       <c r="I288" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.2">
@@ -13095,7 +13079,7 @@
         <v>1210</v>
       </c>
       <c r="I289" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.2">
@@ -13121,7 +13105,7 @@
         <v>1210</v>
       </c>
       <c r="I290" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.2">
@@ -13150,7 +13134,7 @@
         <v>1210</v>
       </c>
       <c r="I291" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.2">
@@ -13179,7 +13163,7 @@
         <v>1209</v>
       </c>
       <c r="I292" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.2">
@@ -13205,7 +13189,7 @@
         <v>1210</v>
       </c>
       <c r="I293" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.2">
@@ -13234,7 +13218,7 @@
         <v>1218</v>
       </c>
       <c r="I294" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.2">
@@ -13263,7 +13247,7 @@
         <v>1210</v>
       </c>
       <c r="I295" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.2">
@@ -21037,8 +21021,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K601">
-    <sortCondition ref="K2:K601"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J601">
+    <sortCondition ref="J2:J601"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
